--- a/loanbookforsale/src/main/java/loanbookforsale/qa/testdata/loanbookforsale.xlsx
+++ b/loanbookforsale/src/main/java/loanbookforsale/qa/testdata/loanbookforsale.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId1" sheetId="1" name="Add a Loanbook data"/>
     <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
     <sheet r:id="rId3" sheetId="3" name="Sheet3"/>
   </sheets>
@@ -72,7 +72,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -466,7 +466,7 @@
     <col min="7" max="7" style="10" width="27.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="159">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="186.75">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -534,7 +534,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>

--- a/loanbookforsale/src/main/java/loanbookforsale/qa/testdata/loanbookforsale.xlsx
+++ b/loanbookforsale/src/main/java/loanbookforsale/qa/testdata/loanbookforsale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -51,7 +51,26 @@
     <t>Astute Financial Management</t>
   </si>
   <si>
+    <t>Operating since 2000, Astute has established itself as a highly respected financial services provider with a membership base comprising of approximately 500 finance, insurance and financial planning specialists across Australia.
+We are a privately owned business, leading the market with a fully integrated financial services offering to our members. With a loan book of over $20 billion dollars, we are well positioned for growth.</t>
+  </si>
+  <si>
+    <t>Toowong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000000                                                                                                                              </t>
+  </si>
+  <si>
     <t>Aussie</t>
+  </si>
+  <si>
+    <t>Aussie works closely with industry and government to ensure a strong customer first industry. Our team are passionate about continuing to find ways to improve the home loan experience. We’ll give you the confidence to make a move.</t>
+  </si>
+  <si>
+    <t>philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2100000                                                                                                                              </t>
   </si>
   <si>
     <t>PLAN Australia</t>
@@ -516,27 +535,51 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6">
+        <v>27.4843</v>
+      </c>
+      <c r="E3" s="6">
+        <v>152.9837</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
+        <v>12.8797</v>
+      </c>
+      <c r="E4" s="6">
+        <v>121.774</v>
+      </c>
+      <c r="F4" s="7">
+        <v>135000</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>

--- a/loanbookforsale/src/main/java/loanbookforsale/qa/testdata/loanbookforsale.xlsx
+++ b/loanbookforsale/src/main/java/loanbookforsale/qa/testdata/loanbookforsale.xlsx
@@ -470,7 +470,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="48">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -587,15 +587,6 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/loanbookforsale/src/main/java/loanbookforsale/qa/testdata/loanbookforsale.xlsx
+++ b/loanbookforsale/src/main/java/loanbookforsale/qa/testdata/loanbookforsale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -24,6 +24,9 @@
     <t xml:space="preserve">Content </t>
   </si>
   <si>
+    <t>Aggregator</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
   </si>
   <si>
     <t>You can only open an account online if you're a new or existing customer who is either a sole trader or director of a private company (Pty Ltd). You'll need to set up your business with us so we can verify your business details with ASIC. Once your beneficial owners and nominated directors have verified their ID (we'll email them instructions to do this online), you'll be able to open and start using your account. You'll be providing information to us on behalf of directors and owners in accordance with our Privacy Policy - make sure you've got their permission to do so before you start.</t>
+  </si>
+  <si>
+    <t>BOQ</t>
   </si>
   <si>
     <t>Sydeny</t>
@@ -55,6 +61,9 @@
 We are a privately owned business, leading the market with a fully integrated financial services offering to our members. With a loan book of over $20 billion dollars, we are well positioned for growth.</t>
   </si>
   <si>
+    <t>Astute</t>
+  </si>
+  <si>
     <t>Toowong</t>
   </si>
   <si>
@@ -74,6 +83,9 @@
   </si>
   <si>
     <t>PLAN Australia</t>
+  </si>
+  <si>
+    <t>Plan</t>
   </si>
 </sst>
 </file>
@@ -136,11 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -161,6 +176,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,19 +488,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="45.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="45.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="27.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -492,101 +511,116 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="186.75">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7">
         <v>33.8688</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="7">
         <v>151.2093</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="8">
         <v>100000</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="8">
         <v>1000000</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="48">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
         <v>27.4843</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="7">
         <v>152.9837</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="8">
         <v>1000000</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7">
         <v>12.8797</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="7">
         <v>121.774</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="8">
         <v>135000</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>17</v>
+      <c r="H4" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
